--- a/biology/Zoologie/Hominina/Hominina.xlsx
+++ b/biology/Zoologie/Hominina/Hominina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hominiens, Hominines · Lignée humaine
 Les Hominina sont une sous-tribu d'hominidés qui inclut le genre Homo et les genres éteints apparentés, tels que les Australopithèques ou les Paranthropes. Cette sous-tribu rassemble toutes les espèces de la lignée humaine, qui s'est séparée de la lignée des chimpanzés (Panina) il y a au moins 7 millions d'années. Le caractère le plus notable reconnu aux Hominina est la bipédie, alors que les chimpanzés et les gorilles sont quadrupèdes.
@@ -512,9 +524,11 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme scientifique Hominina se traduit en français par hominines ou par hominiens selon les auteurs[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme scientifique Hominina se traduit en français par hominines ou par hominiens selon les auteurs.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hypothèse selon laquelle la lignée humaine (Hominina) serait originaire d'Afrique fut formulée dès 1871 par Charles Darwin dans son ouvrage La Filiation de l'homme et la sélection liée au sexe. Charles Darwin fut l'un des premiers à proposer une origine commune de tous les organismes vivants, et parmi les premiers à suggérer que l'Homme, le Chimpanzé, et le Gorille partageaient un dernier ancêtre commun qui vivait en Afrique, et dont la lignée humaine serait issue. Dans son ouvrage de 1871, il émet l'idée selon laquelle les ancêtres africains de l'Homme possédaient un petit cerveau mais marchaient debout, ce qui aurait libéré leurs mains et favorisé le développement de leur intelligence[3] :
-« Dans chaque grande région du monde, les mammifères vivants sont étroitement apparentés aux espèces disparues de cette même région. C'est pourquoi il est probable que l'Afrique était autrefois habitée par des singes disparus étroitement apparentés au gorille et au chimpanzé ; et ces deux espèces sont maintenant les plus proches parents de l'homme, il est en un sens plus probable que nos lointains parents aient vécu sur le continent africain qu'ailleurs. Toutefois, il est inutile de spéculer sur cette question, car un singe presque aussi grand que l'homme, à savoir le Dryopithèque de Lartet, qui était étroitement apparenté à l'anthropomorphe gibbon, existait en Europe lors du Miocène supérieur ; et depuis une période aussi éloignée, la Terre a certainement subi bien de grandes révolutions, et il y a eu amplement le temps pour une migration à grande échelle[4]. »
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hypothèse selon laquelle la lignée humaine (Hominina) serait originaire d'Afrique fut formulée dès 1871 par Charles Darwin dans son ouvrage La Filiation de l'homme et la sélection liée au sexe. Charles Darwin fut l'un des premiers à proposer une origine commune de tous les organismes vivants, et parmi les premiers à suggérer que l'Homme, le Chimpanzé, et le Gorille partageaient un dernier ancêtre commun qui vivait en Afrique, et dont la lignée humaine serait issue. Dans son ouvrage de 1871, il émet l'idée selon laquelle les ancêtres africains de l'Homme possédaient un petit cerveau mais marchaient debout, ce qui aurait libéré leurs mains et favorisé le développement de leur intelligence :
+« Dans chaque grande région du monde, les mammifères vivants sont étroitement apparentés aux espèces disparues de cette même région. C'est pourquoi il est probable que l'Afrique était autrefois habitée par des singes disparus étroitement apparentés au gorille et au chimpanzé ; et ces deux espèces sont maintenant les plus proches parents de l'homme, il est en un sens plus probable que nos lointains parents aient vécu sur le continent africain qu'ailleurs. Toutefois, il est inutile de spéculer sur cette question, car un singe presque aussi grand que l'homme, à savoir le Dryopithèque de Lartet, qui était étroitement apparenté à l'anthropomorphe gibbon, existait en Europe lors du Miocène supérieur ; et depuis une période aussi éloignée, la Terre a certainement subi bien de grandes révolutions, et il y a eu amplement le temps pour une migration à grande échelle. »
 Cette prédiction était perspicace parce qu'en 1871 les scientifiques ne disposaient d'aucun fossile ancien. L'idée est longtemps restée une spéculation, avant d'être finalement corroborée à partir de 1924 par la découverte de l'Enfant de Taung puis d'autres fossiles d'Australopithecus africanus en Afrique du Sud, et surtout par la mise au point dans les années 1960 de méthodes de datation fiables venant appuyer la découverte de fossiles d'humains et d'hominines très anciens en Afrique de l'Est.
 </t>
         </is>
@@ -576,9 +592,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après Lecointre et al. (2015)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après Lecointre et al. (2015) :
 Phylogénie des genres actuels et fossiles d'Homininés :
 </t>
         </is>
@@ -608,7 +626,9 @@
           <t>Histoire évolutive</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les Hominines au cours du temps (échelle : milliers d'années)
 v · d · m</t>
@@ -639,7 +659,9 @@
           <t>Répartition géographique des Hominina</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">À ce jour, les paléoanthropologues n'ont trouvé de représentants de la sous-tribu des hominines antérieurs au genre Homo qu'en Afrique, principalement dans trois grandes régions : la grande Faille est-africaine, qui court de l'Éthiopie jusqu'au Malawi, l'Afrique du Sud, et le Tchad. Les principaux sites de découverte sont les suivants :
 Tchad (TD) :
@@ -659,7 +681,7 @@
 ZA-2 – Swartkrans
 ZA-3 – Kromdraai
 ZA-4 – Taung
-Les découvertes de fossiles en Afrique du Sud, dans la vallée du Grand Rift est-africain et au Tchad s'expliquent en partie par un biais taphonomique. En effet, dans de nombreuses régions d'Afrique, la moindre activité tectonique, la faible sédimentation, le couvert forestier actuel qui donne des sols acides, l'érosion et d'autres facteurs en ont empêché la fossilisation, la conservation, ou la mise au jour[6].
+Les découvertes de fossiles en Afrique du Sud, dans la vallée du Grand Rift est-africain et au Tchad s'expliquent en partie par un biais taphonomique. En effet, dans de nombreuses régions d'Afrique, la moindre activité tectonique, la faible sédimentation, le couvert forestier actuel qui donne des sols acides, l'érosion et d'autres facteurs en ont empêché la fossilisation, la conservation, ou la mise au jour.
 </t>
         </is>
       </c>
@@ -688,7 +710,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Les Hominina sont attestés en Afrique à partir de 7 millions d'années (Ma). La liste des genres connus à ce jour, du plus ancien au plus récent, est la suivante (N.B. : l'appartenance de certaines de ces espèces à la sous-tribu des Hominina est encore discutée ; c'est le cas par exemple du genre Ardipithecus) :
 Sahelanthropus †
@@ -696,7 +720,7 @@
 Toumaï (7 Ma)
 Orrorin †
 Orrorin tugenensis (5,9 Ma)
-Orrorin praegens (3,4 - 3 Ma)[7]
+Orrorin praegens (3,4 - 3 Ma)
 Ardipithecus †
 Ardipithecus kadabba (5,8 - 5,2 Ma)
 Ardipithecus ramidus (4,4 Ma)
@@ -705,36 +729,296 @@
 Kenyanthropus platyops (3,4 Ma)
 Australopithecus †
 Paranthropus †
-Homo
-Australopithèques
-Huit espèces d'Australopithèques ont été décrites à ce jour. Leurs fossiles sont datés entre 4,2 et 2 millions d'années (Ma). Les plus notables d'entre eux sont indiqués ci-dessous après l'espèce à laquelle ils sont rattachés.
-Afrique de l'Est
-Australopithecus anamensis (4,2 - 3,8 Ma)
+Homo</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hominina</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hominina</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Australopithèques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Huit espèces d'Australopithèques ont été décrites à ce jour. Leurs fossiles sont datés entre 4,2 et 2 millions d'années (Ma). Les plus notables d'entre eux sont indiqués ci-dessous après l'espèce à laquelle ils sont rattachés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hominina</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hominina</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Australopithèques</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Afrique de l'Est</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Australopithecus anamensis (4,2 - 3,8 Ma)
 Australopithecus afarensis (3,9 - 2,9 Ma)
 Kadanuumuu (3,58 Ma)
 Selam (3,33 Ma)
 Lucy (3,18 Ma)
-Australopithecus deyiremeda (3,4 Ma)[8]
-Australopithecus garhi (2,5 Ma)
-Afrique du Sud
-Australopithecus prometheus (3,67 - 3 Ma)
+Australopithecus deyiremeda (3,4 Ma)
+Australopithecus garhi (2,5 Ma)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hominina</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hominina</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Australopithèques</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Afrique du Sud</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Australopithecus prometheus (3,67 - 3 Ma)
 Little Foot (3,67 Ma)
 Australopithecus africanus (3,5 - 2,4 Ma)
 Mrs. Ples (3,5 Ma)
 Enfant de Taung (2,5 Ma)
 Australopithecus sediba (2 Ma)
-Karabo (2 Ma)
-Tchad
-Australopithecus bahrelghazali (3,6 Ma)
-Abel (3,6 Ma)
-Paranthropes
-Trois espèces de Paranthropes ont été décrites à ce jour. Leurs fossiles sont datés entre 2,7 et 1,2 millions d'années (Ma). Les plus notables d'entre eux sont indiqués ci-dessous à la suite de leur espèce.
-Afrique de l'Est
-Paranthropus aethiopicus (2,7 - 2,3 Ma)
+Karabo (2 Ma)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Hominina</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hominina</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Australopithèques</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Tchad</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Australopithecus bahrelghazali (3,6 Ma)
+Abel (3,6 Ma)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Hominina</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hominina</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Paranthropes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trois espèces de Paranthropes ont été décrites à ce jour. Leurs fossiles sont datés entre 2,7 et 1,2 millions d'années (Ma). Les plus notables d'entre eux sont indiqués ci-dessous à la suite de leur espèce.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Hominina</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hominina</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Paranthropes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Afrique de l'Est</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Paranthropus aethiopicus (2,7 - 2,3 Ma)
 Crâne noir (2,5 Ma)
-Paranthropus boisei (2,3 - 1,4 Ma)
-Afrique du Sud
-Paranthropus robustus (2,2 - 1,2 Ma)</t>
+Paranthropus boisei (2,3 - 1,4 Ma)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Hominina</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hominina</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Paranthropes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Afrique du Sud</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Paranthropus robustus (2,2 - 1,2 Ma)</t>
         </is>
       </c>
     </row>
